--- a/Code/Results/Cases/Case_2_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009020194210303</v>
+        <v>1.030207184111771</v>
       </c>
       <c r="D2">
-        <v>1.02483449654197</v>
+        <v>1.034257598597455</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.01491268141793</v>
+        <v>1.040815895542663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048487205315971</v>
+        <v>1.037413502484381</v>
       </c>
       <c r="J2">
-        <v>1.030934419806331</v>
+        <v>1.035349705075748</v>
       </c>
       <c r="K2">
-        <v>1.035958358614488</v>
+        <v>1.037057591274386</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.026168095959884</v>
+        <v>1.043597172926108</v>
       </c>
       <c r="N2">
-        <v>1.032398464932287</v>
+        <v>1.036820020413245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013020864576621</v>
+        <v>1.031031465429633</v>
       </c>
       <c r="D3">
-        <v>1.027727090885592</v>
+        <v>1.034867607726591</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.019830907178822</v>
+        <v>1.041910106369248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04986231932039</v>
+        <v>1.037634021521089</v>
       </c>
       <c r="J3">
-        <v>1.033162753499769</v>
+        <v>1.035815982329411</v>
       </c>
       <c r="K3">
-        <v>1.038017076543922</v>
+        <v>1.037477281658688</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.030216183003224</v>
+        <v>1.044501138628534</v>
       </c>
       <c r="N3">
-        <v>1.034629963115163</v>
+        <v>1.037286959834073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01555669563751</v>
+        <v>1.031565005212316</v>
       </c>
       <c r="D4">
-        <v>1.029562473059868</v>
+        <v>1.035262410011656</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.022950160392747</v>
+        <v>1.042618681233364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050723032685118</v>
+        <v>1.037775440565625</v>
       </c>
       <c r="J4">
-        <v>1.03457066058328</v>
+        <v>1.036117210774419</v>
       </c>
       <c r="K4">
-        <v>1.039316731665895</v>
+        <v>1.03774824143123</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.032779268428195</v>
+        <v>1.045086022395363</v>
       </c>
       <c r="N4">
-        <v>1.036039869588221</v>
+        <v>1.037588616058024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016610512605802</v>
+        <v>1.031789345921192</v>
       </c>
       <c r="D5">
-        <v>1.030325621820826</v>
+        <v>1.035428403961425</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.024246921133582</v>
+        <v>1.042916696524642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051078071144511</v>
+        <v>1.037834588123642</v>
       </c>
       <c r="J5">
-        <v>1.035154637017296</v>
+        <v>1.036243730397166</v>
       </c>
       <c r="K5">
-        <v>1.039855537009024</v>
+        <v>1.037862006422149</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.033843764823025</v>
+        <v>1.045331896711596</v>
       </c>
       <c r="N5">
-        <v>1.036624675335758</v>
+        <v>1.037715315353147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016786746552543</v>
+        <v>1.031827016057556</v>
       </c>
       <c r="D6">
-        <v>1.030453269608187</v>
+        <v>1.035456276152835</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.024463813835327</v>
+        <v>1.042966742233701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05113728897128</v>
+        <v>1.037844501355498</v>
       </c>
       <c r="J6">
-        <v>1.0352522318747</v>
+        <v>1.036264966721743</v>
       </c>
       <c r="K6">
-        <v>1.039945566665307</v>
+        <v>1.037881099446435</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.034021747424685</v>
+        <v>1.045373179437988</v>
       </c>
       <c r="N6">
-        <v>1.036722408789053</v>
+        <v>1.037736581835741</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015570824381303</v>
+        <v>1.031568002705916</v>
       </c>
       <c r="D7">
-        <v>1.029572703155552</v>
+        <v>1.0352646279578</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.022967544329071</v>
+        <v>1.042622662816566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050727803266039</v>
+        <v>1.037776232097419</v>
       </c>
       <c r="J7">
-        <v>1.034578494485488</v>
+        <v>1.036118901795966</v>
       </c>
       <c r="K7">
-        <v>1.039323960688879</v>
+        <v>1.037749762141432</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.032793542875649</v>
+        <v>1.045089307823329</v>
       </c>
       <c r="N7">
-        <v>1.03604771461547</v>
+        <v>1.037590309481015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010383440391092</v>
+        <v>1.030485716941353</v>
       </c>
       <c r="D8">
-        <v>1.025819736414537</v>
+        <v>1.034463735463888</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.01658823775692</v>
+        <v>1.041185575529866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048958048511556</v>
+        <v>1.037488290838033</v>
       </c>
       <c r="J8">
-        <v>1.031694669599281</v>
+        <v>1.035507385345437</v>
       </c>
       <c r="K8">
-        <v>1.036660962083773</v>
+        <v>1.037199552919305</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.027548102871942</v>
+        <v>1.043902680775195</v>
       </c>
       <c r="N8">
-        <v>1.033159794367144</v>
+        <v>1.036977924606984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000818172852885</v>
+        <v>1.028579982860312</v>
       </c>
       <c r="D9">
-        <v>1.018916546163376</v>
+        <v>1.033053178634189</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.004837137428903</v>
+        <v>1.038657462155874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045609399038098</v>
+        <v>1.036971189855706</v>
       </c>
       <c r="J9">
-        <v>1.026342072372653</v>
+        <v>1.034426147823158</v>
       </c>
       <c r="K9">
-        <v>1.031709993871147</v>
+        <v>1.036225399383119</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.017852219938163</v>
+        <v>1.041811395250575</v>
       </c>
       <c r="N9">
-        <v>1.027799595838503</v>
+        <v>1.035895151603403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941269701112259</v>
+        <v>1.027310501035343</v>
       </c>
       <c r="D10">
-        <v>1.014101919247614</v>
+        <v>1.03211337402536</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.996621204769193</v>
+        <v>1.036974922589244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043211197199984</v>
+        <v>1.036619961652059</v>
       </c>
       <c r="J10">
-        <v>1.022575556937026</v>
+        <v>1.033702910765472</v>
       </c>
       <c r="K10">
-        <v>1.028221143153092</v>
+        <v>1.035572916773834</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.011051733565774</v>
+        <v>1.040417041492662</v>
       </c>
       <c r="N10">
-        <v>1.024027731518933</v>
+        <v>1.03517088746614</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.991148038602602</v>
+        <v>1.026761055174651</v>
       </c>
       <c r="D11">
-        <v>1.011962504067422</v>
+        <v>1.031706580160021</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9929635679094618</v>
+        <v>1.036247051251263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042130752753926</v>
+        <v>1.036466342903341</v>
       </c>
       <c r="J11">
-        <v>1.020893763174129</v>
+        <v>1.033389180129922</v>
       </c>
       <c r="K11">
-        <v>1.026662296942341</v>
+        <v>1.035289673454734</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.008019412291757</v>
+        <v>1.039813239188055</v>
       </c>
       <c r="N11">
-        <v>1.022343549415988</v>
+        <v>1.034856711297101</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9900286281605615</v>
+        <v>1.026557004949189</v>
       </c>
       <c r="D12">
-        <v>1.011159231861017</v>
+        <v>1.031555502395082</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9915890479174422</v>
+        <v>1.035976789918391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041722869793026</v>
+        <v>1.036409052051524</v>
       </c>
       <c r="J12">
-        <v>1.020261072817859</v>
+        <v>1.033272562697116</v>
       </c>
       <c r="K12">
-        <v>1.02607571655678</v>
+        <v>1.035184357897538</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.006879182245356</v>
+        <v>1.039588954914782</v>
       </c>
       <c r="N12">
-        <v>1.021709960566841</v>
+        <v>1.034739928254165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902693401950307</v>
+        <v>1.026600772657654</v>
       </c>
       <c r="D13">
-        <v>1.01133193206963</v>
+        <v>1.031587907998713</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9918846218588352</v>
+        <v>1.036034757247043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041810662976162</v>
+        <v>1.036421351533253</v>
       </c>
       <c r="J13">
-        <v>1.0203971549096</v>
+        <v>1.033297581315424</v>
       </c>
       <c r="K13">
-        <v>1.026201887345948</v>
+        <v>1.035206953241416</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.007124406188418</v>
+        <v>1.039637064880836</v>
       </c>
       <c r="N13">
-        <v>1.021846235910762</v>
+        <v>1.034764982401781</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9910557748745141</v>
+        <v>1.026744187528722</v>
       </c>
       <c r="D14">
-        <v>1.011896283068549</v>
+        <v>1.031694091535585</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9928502795145506</v>
+        <v>1.036224709271968</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04209717228491</v>
+        <v>1.03646161191258</v>
       </c>
       <c r="J14">
-        <v>1.020841630072759</v>
+        <v>1.033379542203225</v>
       </c>
       <c r="K14">
-        <v>1.02661396609063</v>
+        <v>1.035280970202785</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.007925448238353</v>
+        <v>1.03979469988359</v>
       </c>
       <c r="N14">
-        <v>1.022291342279633</v>
+        <v>1.034847059683444</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9915385935114484</v>
+        <v>1.026832555291001</v>
       </c>
       <c r="D15">
-        <v>1.012242846976434</v>
+        <v>1.031759517884565</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9934431175043033</v>
+        <v>1.036341758577318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042272823488151</v>
+        <v>1.036486387199137</v>
       </c>
       <c r="J15">
-        <v>1.021114415144259</v>
+        <v>1.033430029918649</v>
       </c>
       <c r="K15">
-        <v>1.026866850244731</v>
+        <v>1.035326560426447</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.008417133586853</v>
+        <v>1.03989182333518</v>
       </c>
       <c r="N15">
-        <v>1.022564514737224</v>
+        <v>1.034897619097214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9943228988908778</v>
+        <v>1.027346971273886</v>
       </c>
       <c r="D16">
-        <v>1.014242721271905</v>
+        <v>1.032140374826103</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9968617682288438</v>
+        <v>1.037023243362537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043281997025758</v>
+        <v>1.036630124536803</v>
       </c>
       <c r="J16">
-        <v>1.022686070576703</v>
+        <v>1.033723720220652</v>
       </c>
       <c r="K16">
-        <v>1.028323557223473</v>
+        <v>1.03559169973286</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.01125107142445</v>
+        <v>1.040457113105307</v>
       </c>
       <c r="N16">
-        <v>1.024138402100654</v>
+        <v>1.035191726473133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9960471335671409</v>
+        <v>1.02766971807702</v>
       </c>
       <c r="D17">
-        <v>1.015482292557245</v>
+        <v>1.032379316861052</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9989788045155861</v>
+        <v>1.037450902952287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043903609529057</v>
+        <v>1.036719876698706</v>
       </c>
       <c r="J17">
-        <v>1.02365806670136</v>
+        <v>1.033907793939462</v>
       </c>
       <c r="K17">
-        <v>1.029224199581641</v>
+        <v>1.035757824081012</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.013004762710729</v>
+        <v>1.040811694630994</v>
       </c>
       <c r="N17">
-        <v>1.025111778571298</v>
+        <v>1.035376061597738</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970450233338409</v>
+        <v>1.0278579946923</v>
       </c>
       <c r="D18">
-        <v>1.01620006809227</v>
+        <v>1.032518701868228</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.000204041631669</v>
+        <v>1.037700415079293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044262150038984</v>
+        <v>1.036772079510869</v>
       </c>
       <c r="J18">
-        <v>1.024220132826563</v>
+        <v>1.034015106528929</v>
       </c>
       <c r="K18">
-        <v>1.029744906010962</v>
+        <v>1.035854652647599</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.014019253980531</v>
+        <v>1.041018512343894</v>
       </c>
       <c r="N18">
-        <v>1.025674642894868</v>
+        <v>1.035483526583391</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973839691699027</v>
+        <v>1.027922196165614</v>
       </c>
       <c r="D19">
-        <v>1.016443932638747</v>
+        <v>1.032566230913075</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.000620213988018</v>
+        <v>1.037785503367905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044383725802652</v>
+        <v>1.03678985418279</v>
       </c>
       <c r="J19">
-        <v>1.024410965032533</v>
+        <v>1.034051688078967</v>
       </c>
       <c r="K19">
-        <v>1.0299216787062</v>
+        <v>1.035887656963145</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.014363764314045</v>
+        <v>1.041089031198408</v>
       </c>
       <c r="N19">
-        <v>1.025865746104459</v>
+        <v>1.035520160083425</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9958629536153296</v>
+        <v>1.027635087922634</v>
       </c>
       <c r="D20">
-        <v>1.015349843568159</v>
+        <v>1.032353679167225</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9987526650622482</v>
+        <v>1.037405012345098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043837335534617</v>
+        <v>1.036710262456383</v>
       </c>
       <c r="J20">
-        <v>1.023554288252115</v>
+        <v>1.033888050202068</v>
       </c>
       <c r="K20">
-        <v>1.029128049614113</v>
+        <v>1.035740007636469</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.012817482867678</v>
+        <v>1.040773651767316</v>
       </c>
       <c r="N20">
-        <v>1.025007852744751</v>
+        <v>1.035356289821972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908245510309112</v>
+        <v>1.026701954353586</v>
       </c>
       <c r="D21">
-        <v>1.01173033635965</v>
+        <v>1.031662822468183</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9925663639614289</v>
+        <v>1.036168770302436</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042012985528896</v>
+        <v>1.036449762579275</v>
       </c>
       <c r="J21">
-        <v>1.020710966953149</v>
+        <v>1.033355409073892</v>
       </c>
       <c r="K21">
-        <v>1.026492830431664</v>
+        <v>1.035259176981796</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.007689950821733</v>
+        <v>1.039748280444225</v>
       </c>
       <c r="N21">
-        <v>1.022160493603407</v>
+        <v>1.034822892282299</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9875817049340238</v>
+        <v>1.026115479163878</v>
       </c>
       <c r="D22">
-        <v>1.00940465107381</v>
+        <v>1.031228590607866</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9885842554231088</v>
+        <v>1.035392089052654</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040827868025733</v>
+        <v>1.03628464548091</v>
       </c>
       <c r="J22">
-        <v>1.018876794263315</v>
+        <v>1.033020031428002</v>
       </c>
       <c r="K22">
-        <v>1.024792074223855</v>
+        <v>1.034956244644388</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.004385304033116</v>
+        <v>1.039103558877795</v>
       </c>
       <c r="N22">
-        <v>1.020323716177971</v>
+        <v>1.034487038361683</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9893081350721884</v>
+        <v>1.026426359243969</v>
       </c>
       <c r="D23">
-        <v>1.010642412541212</v>
+        <v>1.031458771666838</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.990704326712303</v>
+        <v>1.035803766110218</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041459817351934</v>
+        <v>1.036372303109703</v>
       </c>
       <c r="J23">
-        <v>1.019853653169947</v>
+        <v>1.033197867151413</v>
       </c>
       <c r="K23">
-        <v>1.025697950640782</v>
+        <v>1.035116892804942</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.006145069593349</v>
+        <v>1.039445340651954</v>
       </c>
       <c r="N23">
-        <v>1.021301962336297</v>
+        <v>1.034665126632219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9959462007490321</v>
+        <v>1.02765073572512</v>
       </c>
       <c r="D24">
-        <v>1.015409707747134</v>
+        <v>1.032365263693903</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.998854877332667</v>
+        <v>1.037425748132627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043867294353</v>
+        <v>1.036714607176311</v>
       </c>
       <c r="J24">
-        <v>1.023601196329657</v>
+        <v>1.033896971715598</v>
       </c>
       <c r="K24">
-        <v>1.029171509908895</v>
+        <v>1.035748058334003</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.012902132495524</v>
+        <v>1.040790841711242</v>
       </c>
       <c r="N24">
-        <v>1.025054827437144</v>
+        <v>1.035365224005074</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003344193620249</v>
+        <v>1.029072488470655</v>
       </c>
       <c r="D25">
-        <v>1.020737289309413</v>
+        <v>1.03341774763663</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.007939366500727</v>
+        <v>1.039310536773941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04650346874637</v>
+        <v>1.037106020094965</v>
       </c>
       <c r="J25">
-        <v>1.027759534076393</v>
+        <v>1.034706102705892</v>
       </c>
       <c r="K25">
-        <v>1.033021994101098</v>
+        <v>1.036477782531281</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.020415671678732</v>
+        <v>1.042352074155126</v>
       </c>
       <c r="N25">
-        <v>1.029219070500448</v>
+        <v>1.036175504054183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030207184111771</v>
+        <v>1.009020194210302</v>
       </c>
       <c r="D2">
-        <v>1.034257598597455</v>
+        <v>1.02483449654197</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.040815895542663</v>
+        <v>1.014912681417929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037413502484381</v>
+        <v>1.048487205315971</v>
       </c>
       <c r="J2">
-        <v>1.035349705075748</v>
+        <v>1.03093441980633</v>
       </c>
       <c r="K2">
-        <v>1.037057591274386</v>
+        <v>1.035958358614487</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.043597172926108</v>
+        <v>1.026168095959883</v>
       </c>
       <c r="N2">
-        <v>1.036820020413245</v>
+        <v>1.032398464932286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031031465429633</v>
+        <v>1.013020864576622</v>
       </c>
       <c r="D3">
-        <v>1.034867607726591</v>
+        <v>1.027727090885592</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.041910106369248</v>
+        <v>1.019830907178823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037634021521089</v>
+        <v>1.04986231932039</v>
       </c>
       <c r="J3">
-        <v>1.035815982329411</v>
+        <v>1.033162753499769</v>
       </c>
       <c r="K3">
-        <v>1.037477281658688</v>
+        <v>1.038017076543922</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.044501138628534</v>
+        <v>1.030216183003224</v>
       </c>
       <c r="N3">
-        <v>1.037286959834073</v>
+        <v>1.034629963115163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031565005212316</v>
+        <v>1.015556695637509</v>
       </c>
       <c r="D4">
-        <v>1.035262410011656</v>
+        <v>1.029562473059868</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.042618681233364</v>
+        <v>1.022950160392746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037775440565625</v>
+        <v>1.050723032685118</v>
       </c>
       <c r="J4">
-        <v>1.036117210774419</v>
+        <v>1.034570660583279</v>
       </c>
       <c r="K4">
-        <v>1.03774824143123</v>
+        <v>1.039316731665894</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.045086022395363</v>
+        <v>1.032779268428194</v>
       </c>
       <c r="N4">
-        <v>1.037588616058024</v>
+        <v>1.03603986958822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031789345921192</v>
+        <v>1.0166105126058</v>
       </c>
       <c r="D5">
-        <v>1.035428403961425</v>
+        <v>1.030325621820825</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.042916696524642</v>
+        <v>1.024246921133582</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037834588123642</v>
+        <v>1.05107807114451</v>
       </c>
       <c r="J5">
-        <v>1.036243730397166</v>
+        <v>1.035154637017295</v>
       </c>
       <c r="K5">
-        <v>1.037862006422149</v>
+        <v>1.039855537009023</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045331896711596</v>
+        <v>1.033843764823024</v>
       </c>
       <c r="N5">
-        <v>1.037715315353147</v>
+        <v>1.036624675335756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031827016057556</v>
+        <v>1.016786746552542</v>
       </c>
       <c r="D6">
-        <v>1.035456276152835</v>
+        <v>1.030453269608186</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042966742233701</v>
+        <v>1.024463813835327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037844501355498</v>
+        <v>1.05113728897128</v>
       </c>
       <c r="J6">
-        <v>1.036264966721743</v>
+        <v>1.0352522318747</v>
       </c>
       <c r="K6">
-        <v>1.037881099446435</v>
+        <v>1.039945566665307</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045373179437988</v>
+        <v>1.034021747424684</v>
       </c>
       <c r="N6">
-        <v>1.037736581835741</v>
+        <v>1.036722408789052</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031568002705916</v>
+        <v>1.015570824381302</v>
       </c>
       <c r="D7">
-        <v>1.0352646279578</v>
+        <v>1.029572703155551</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.042622662816566</v>
+        <v>1.02296754432907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037776232097419</v>
+        <v>1.050727803266038</v>
       </c>
       <c r="J7">
-        <v>1.036118901795966</v>
+        <v>1.034578494485488</v>
       </c>
       <c r="K7">
-        <v>1.037749762141432</v>
+        <v>1.039323960688878</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045089307823329</v>
+        <v>1.032793542875648</v>
       </c>
       <c r="N7">
-        <v>1.037590309481015</v>
+        <v>1.036047714615469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030485716941353</v>
+        <v>1.010383440391093</v>
       </c>
       <c r="D8">
-        <v>1.034463735463888</v>
+        <v>1.025819736414538</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.041185575529866</v>
+        <v>1.016588237756921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037488290838033</v>
+        <v>1.048958048511556</v>
       </c>
       <c r="J8">
-        <v>1.035507385345437</v>
+        <v>1.031694669599281</v>
       </c>
       <c r="K8">
-        <v>1.037199552919305</v>
+        <v>1.036660962083774</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.043902680775195</v>
+        <v>1.027548102871943</v>
       </c>
       <c r="N8">
-        <v>1.036977924606984</v>
+        <v>1.033159794367145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028579982860312</v>
+        <v>1.000818172852885</v>
       </c>
       <c r="D9">
-        <v>1.033053178634189</v>
+        <v>1.018916546163375</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.038657462155874</v>
+        <v>1.004837137428902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036971189855706</v>
+        <v>1.045609399038097</v>
       </c>
       <c r="J9">
-        <v>1.034426147823158</v>
+        <v>1.026342072372653</v>
       </c>
       <c r="K9">
-        <v>1.036225399383119</v>
+        <v>1.031709993871146</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.041811395250575</v>
+        <v>1.017852219938163</v>
       </c>
       <c r="N9">
-        <v>1.035895151603403</v>
+        <v>1.027799595838503</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027310501035343</v>
+        <v>0.994126970111226</v>
       </c>
       <c r="D10">
-        <v>1.03211337402536</v>
+        <v>1.014101919247614</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.036974922589244</v>
+        <v>0.9966212047691931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036619961652059</v>
+        <v>1.043211197199984</v>
       </c>
       <c r="J10">
-        <v>1.033702910765472</v>
+        <v>1.022575556937026</v>
       </c>
       <c r="K10">
-        <v>1.035572916773834</v>
+        <v>1.028221143153092</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.040417041492662</v>
+        <v>1.011051733565774</v>
       </c>
       <c r="N10">
-        <v>1.03517088746614</v>
+        <v>1.024027731518932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026761055174651</v>
+        <v>0.9911480386026019</v>
       </c>
       <c r="D11">
-        <v>1.031706580160021</v>
+        <v>1.011962504067422</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.036247051251263</v>
+        <v>0.9929635679094618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036466342903341</v>
+        <v>1.042130752753926</v>
       </c>
       <c r="J11">
-        <v>1.033389180129922</v>
+        <v>1.020893763174129</v>
       </c>
       <c r="K11">
-        <v>1.035289673454734</v>
+        <v>1.026662296942341</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.039813239188055</v>
+        <v>1.008019412291757</v>
       </c>
       <c r="N11">
-        <v>1.034856711297101</v>
+        <v>1.022343549415988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026557004949189</v>
+        <v>0.9900286281605619</v>
       </c>
       <c r="D12">
-        <v>1.031555502395082</v>
+        <v>1.011159231861017</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.035976789918391</v>
+        <v>0.9915890479174425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036409052051524</v>
+        <v>1.041722869793026</v>
       </c>
       <c r="J12">
-        <v>1.033272562697116</v>
+        <v>1.02026107281786</v>
       </c>
       <c r="K12">
-        <v>1.035184357897538</v>
+        <v>1.026075716556781</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.039588954914782</v>
+        <v>1.006879182245356</v>
       </c>
       <c r="N12">
-        <v>1.034739928254165</v>
+        <v>1.021709960566842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026600772657654</v>
+        <v>0.9902693401950311</v>
       </c>
       <c r="D13">
-        <v>1.031587907998713</v>
+        <v>1.011331932069631</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.036034757247043</v>
+        <v>0.991884621858836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036421351533253</v>
+        <v>1.041810662976163</v>
       </c>
       <c r="J13">
-        <v>1.033297581315424</v>
+        <v>1.020397154909601</v>
       </c>
       <c r="K13">
-        <v>1.035206953241416</v>
+        <v>1.026201887345948</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.039637064880836</v>
+        <v>1.007124406188419</v>
       </c>
       <c r="N13">
-        <v>1.034764982401781</v>
+        <v>1.021846235910762</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026744187528722</v>
+        <v>0.9910557748745136</v>
       </c>
       <c r="D14">
-        <v>1.031694091535585</v>
+        <v>1.011896283068548</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.036224709271968</v>
+        <v>0.9928502795145502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03646161191258</v>
+        <v>1.04209717228491</v>
       </c>
       <c r="J14">
-        <v>1.033379542203225</v>
+        <v>1.020841630072758</v>
       </c>
       <c r="K14">
-        <v>1.035280970202785</v>
+        <v>1.02661396609063</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.03979469988359</v>
+        <v>1.007925448238352</v>
       </c>
       <c r="N14">
-        <v>1.034847059683444</v>
+        <v>1.022291342279633</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026832555291001</v>
+        <v>0.9915385935114491</v>
       </c>
       <c r="D15">
-        <v>1.031759517884565</v>
+        <v>1.012242846976435</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.036341758577318</v>
+        <v>0.9934431175043039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036486387199137</v>
+        <v>1.042272823488152</v>
       </c>
       <c r="J15">
-        <v>1.033430029918649</v>
+        <v>1.02111441514426</v>
       </c>
       <c r="K15">
-        <v>1.035326560426447</v>
+        <v>1.026866850244731</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.03989182333518</v>
+        <v>1.008417133586854</v>
       </c>
       <c r="N15">
-        <v>1.034897619097214</v>
+        <v>1.022564514737225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027346971273886</v>
+        <v>0.9943228988908765</v>
       </c>
       <c r="D16">
-        <v>1.032140374826103</v>
+        <v>1.014242721271904</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.037023243362537</v>
+        <v>0.9968617682288429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036630124536803</v>
+        <v>1.043281997025757</v>
       </c>
       <c r="J16">
-        <v>1.033723720220652</v>
+        <v>1.022686070576702</v>
       </c>
       <c r="K16">
-        <v>1.03559169973286</v>
+        <v>1.028323557223472</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.040457113105307</v>
+        <v>1.01125107142445</v>
       </c>
       <c r="N16">
-        <v>1.035191726473133</v>
+        <v>1.024138402100654</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02766971807702</v>
+        <v>0.9960471335671409</v>
       </c>
       <c r="D17">
-        <v>1.032379316861052</v>
+        <v>1.015482292557245</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.037450902952287</v>
+        <v>0.998978804515586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036719876698706</v>
+        <v>1.043903609529057</v>
       </c>
       <c r="J17">
-        <v>1.033907793939462</v>
+        <v>1.02365806670136</v>
       </c>
       <c r="K17">
-        <v>1.035757824081012</v>
+        <v>1.029224199581641</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.040811694630994</v>
+        <v>1.013004762710729</v>
       </c>
       <c r="N17">
-        <v>1.035376061597738</v>
+        <v>1.025111778571297</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0278579946923</v>
+        <v>0.9970450233338415</v>
       </c>
       <c r="D18">
-        <v>1.032518701868228</v>
+        <v>1.016200068092271</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.037700415079293</v>
+        <v>1.00020404163167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036772079510869</v>
+        <v>1.044262150038984</v>
       </c>
       <c r="J18">
-        <v>1.034015106528929</v>
+        <v>1.024220132826563</v>
       </c>
       <c r="K18">
-        <v>1.035854652647599</v>
+        <v>1.029744906010962</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.041018512343894</v>
+        <v>1.014019253980531</v>
       </c>
       <c r="N18">
-        <v>1.035483526583391</v>
+        <v>1.025674642894868</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027922196165614</v>
+        <v>0.9973839691699027</v>
       </c>
       <c r="D19">
-        <v>1.032566230913075</v>
+        <v>1.016443932638747</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.037785503367905</v>
+        <v>1.000620213988018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03678985418279</v>
+        <v>1.044383725802652</v>
       </c>
       <c r="J19">
-        <v>1.034051688078967</v>
+        <v>1.024410965032533</v>
       </c>
       <c r="K19">
-        <v>1.035887656963145</v>
+        <v>1.0299216787062</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.041089031198408</v>
+        <v>1.014363764314045</v>
       </c>
       <c r="N19">
-        <v>1.035520160083425</v>
+        <v>1.025865746104459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027635087922634</v>
+        <v>0.9958629536153294</v>
       </c>
       <c r="D20">
-        <v>1.032353679167225</v>
+        <v>1.015349843568159</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.037405012345098</v>
+        <v>0.9987526650622484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036710262456383</v>
+        <v>1.043837335534617</v>
       </c>
       <c r="J20">
-        <v>1.033888050202068</v>
+        <v>1.023554288252115</v>
       </c>
       <c r="K20">
-        <v>1.035740007636469</v>
+        <v>1.029128049614113</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.040773651767316</v>
+        <v>1.012817482867678</v>
       </c>
       <c r="N20">
-        <v>1.035356289821972</v>
+        <v>1.025007852744751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026701954353586</v>
+        <v>0.9908245510309108</v>
       </c>
       <c r="D21">
-        <v>1.031662822468183</v>
+        <v>1.01173033635965</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.036168770302436</v>
+        <v>0.9925663639614284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036449762579275</v>
+        <v>1.042012985528896</v>
       </c>
       <c r="J21">
-        <v>1.033355409073892</v>
+        <v>1.020710966953149</v>
       </c>
       <c r="K21">
-        <v>1.035259176981796</v>
+        <v>1.026492830431664</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.039748280444225</v>
+        <v>1.007689950821733</v>
       </c>
       <c r="N21">
-        <v>1.034822892282299</v>
+        <v>1.022160493603407</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026115479163878</v>
+        <v>0.9875817049340233</v>
       </c>
       <c r="D22">
-        <v>1.031228590607866</v>
+        <v>1.00940465107381</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.035392089052654</v>
+        <v>0.9885842554231082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03628464548091</v>
+        <v>1.040827868025732</v>
       </c>
       <c r="J22">
-        <v>1.033020031428002</v>
+        <v>1.018876794263315</v>
       </c>
       <c r="K22">
-        <v>1.034956244644388</v>
+        <v>1.024792074223855</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.039103558877795</v>
+        <v>1.004385304033116</v>
       </c>
       <c r="N22">
-        <v>1.034487038361683</v>
+        <v>1.020323716177971</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026426359243969</v>
+        <v>0.9893081350721883</v>
       </c>
       <c r="D23">
-        <v>1.031458771666838</v>
+        <v>1.010642412541212</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.035803766110218</v>
+        <v>0.9907043267123029</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036372303109703</v>
+        <v>1.041459817351934</v>
       </c>
       <c r="J23">
-        <v>1.033197867151413</v>
+        <v>1.019853653169947</v>
       </c>
       <c r="K23">
-        <v>1.035116892804942</v>
+        <v>1.025697950640782</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.039445340651954</v>
+        <v>1.006145069593349</v>
       </c>
       <c r="N23">
-        <v>1.034665126632219</v>
+        <v>1.021301962336297</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02765073572512</v>
+        <v>0.9959462007490312</v>
       </c>
       <c r="D24">
-        <v>1.032365263693903</v>
+        <v>1.015409707747133</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.037425748132627</v>
+        <v>0.9988548773326656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036714607176311</v>
+        <v>1.043867294353</v>
       </c>
       <c r="J24">
-        <v>1.033896971715598</v>
+        <v>1.023601196329656</v>
       </c>
       <c r="K24">
-        <v>1.035748058334003</v>
+        <v>1.029171509908894</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040790841711242</v>
+        <v>1.012902132495523</v>
       </c>
       <c r="N24">
-        <v>1.035365224005074</v>
+        <v>1.025054827437143</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029072488470655</v>
+        <v>1.003344193620249</v>
       </c>
       <c r="D25">
-        <v>1.03341774763663</v>
+        <v>1.020737289309413</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.039310536773941</v>
+        <v>1.007939366500727</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037106020094965</v>
+        <v>1.04650346874637</v>
       </c>
       <c r="J25">
-        <v>1.034706102705892</v>
+        <v>1.027759534076393</v>
       </c>
       <c r="K25">
-        <v>1.036477782531281</v>
+        <v>1.033021994101098</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.042352074155126</v>
+        <v>1.020415671678732</v>
       </c>
       <c r="N25">
-        <v>1.036175504054183</v>
+        <v>1.029219070500448</v>
       </c>
     </row>
   </sheetData>
